--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Comp-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Comp-Itga5.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4181183333333333</v>
+        <v>0.2989916666666667</v>
       </c>
       <c r="H2">
-        <v>1.254355</v>
+        <v>0.896975</v>
       </c>
       <c r="I2">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="J2">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>12.01010348051111</v>
+        <v>3.093850256219444</v>
       </c>
       <c r="R2">
-        <v>108.0909313246</v>
+        <v>27.844652305975</v>
       </c>
       <c r="S2">
-        <v>0.006651059870602713</v>
+        <v>0.002577446259940548</v>
       </c>
       <c r="T2">
-        <v>0.006651059870602713</v>
+        <v>0.002577446259940548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4181183333333333</v>
+        <v>0.2989916666666667</v>
       </c>
       <c r="H3">
-        <v>1.254355</v>
+        <v>0.896975</v>
       </c>
       <c r="I3">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="J3">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
-        <v>12.78181988904278</v>
+        <v>9.140134088813889</v>
       </c>
       <c r="R3">
-        <v>115.036379001385</v>
+        <v>82.261206799325</v>
       </c>
       <c r="S3">
-        <v>0.007078427715067963</v>
+        <v>0.007614526389960324</v>
       </c>
       <c r="T3">
-        <v>0.007078427715067962</v>
+        <v>0.007614526389960324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4181183333333333</v>
+        <v>0.2989916666666667</v>
       </c>
       <c r="H4">
-        <v>1.254355</v>
+        <v>0.896975</v>
       </c>
       <c r="I4">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="J4">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>3.578897253953333</v>
+        <v>1.217810599177778</v>
       </c>
       <c r="R4">
-        <v>32.21007528558</v>
+        <v>10.9602953926</v>
       </c>
       <c r="S4">
-        <v>0.001981952940322732</v>
+        <v>0.001014542112326488</v>
       </c>
       <c r="T4">
-        <v>0.001981952940322731</v>
+        <v>0.001014542112326488</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>74.672639</v>
       </c>
       <c r="I5">
-        <v>0.9353131502385497</v>
+        <v>0.9329357354307251</v>
       </c>
       <c r="J5">
-        <v>0.9353131502385496</v>
+        <v>0.9329357354307249</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N5">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q5">
-        <v>714.9699419644754</v>
+        <v>257.5612066141554</v>
       </c>
       <c r="R5">
-        <v>6434.72947768028</v>
+        <v>2318.050859527399</v>
       </c>
       <c r="S5">
-        <v>0.395942291205363</v>
+        <v>0.2145708789101599</v>
       </c>
       <c r="T5">
-        <v>0.3959422912053631</v>
+        <v>0.21457087891016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.672639</v>
       </c>
       <c r="I6">
-        <v>0.9353131502385497</v>
+        <v>0.9329357354307251</v>
       </c>
       <c r="J6">
-        <v>0.9353131502385496</v>
+        <v>0.9329357354307249</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q6">
         <v>760.9107647655659</v>
@@ -818,10 +818,10 @@
         <v>6848.196882890094</v>
       </c>
       <c r="S6">
-        <v>0.4213838008018981</v>
+        <v>0.6339048248540712</v>
       </c>
       <c r="T6">
-        <v>0.4213838008018981</v>
+        <v>0.6339048248540712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.672639</v>
       </c>
       <c r="I7">
-        <v>0.9353131502385497</v>
+        <v>0.9329357354307251</v>
       </c>
       <c r="J7">
-        <v>0.9353131502385496</v>
+        <v>0.9329357354307249</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N7">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q7">
-        <v>213.0542810149826</v>
+        <v>101.3820131472738</v>
       </c>
       <c r="R7">
-        <v>1917.488529134844</v>
+        <v>912.438118325464</v>
       </c>
       <c r="S7">
-        <v>0.1179870582312885</v>
+        <v>0.08446003166649381</v>
       </c>
       <c r="T7">
-        <v>0.1179870582312885</v>
+        <v>0.08446003166649382</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.303350666666667</v>
+        <v>1.490294</v>
       </c>
       <c r="H8">
-        <v>3.910052</v>
+        <v>4.470882</v>
       </c>
       <c r="I8">
-        <v>0.04897540923545694</v>
+        <v>0.05585774980704767</v>
       </c>
       <c r="J8">
-        <v>0.04897540923545693</v>
+        <v>0.05585774980704766</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N8">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q8">
-        <v>37.43767046344889</v>
+        <v>15.42098656175133</v>
       </c>
       <c r="R8">
-        <v>336.93903417104</v>
+        <v>138.788879055762</v>
       </c>
       <c r="S8">
-        <v>0.02073255972126701</v>
+        <v>0.01284702259208508</v>
       </c>
       <c r="T8">
-        <v>0.02073255972126701</v>
+        <v>0.01284702259208508</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.303350666666667</v>
+        <v>1.490294</v>
       </c>
       <c r="H9">
-        <v>3.910052</v>
+        <v>4.470882</v>
       </c>
       <c r="I9">
-        <v>0.04897540923545694</v>
+        <v>0.05585774980704767</v>
       </c>
       <c r="J9">
-        <v>0.04897540923545693</v>
+        <v>0.05585774980704766</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q9">
-        <v>39.84325045205823</v>
+        <v>45.55808241619266</v>
       </c>
       <c r="R9">
-        <v>358.589254068524</v>
+        <v>410.022741745734</v>
       </c>
       <c r="S9">
-        <v>0.02206474279144016</v>
+        <v>0.03795384372518586</v>
       </c>
       <c r="T9">
-        <v>0.02206474279144016</v>
+        <v>0.03795384372518586</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.303350666666667</v>
+        <v>1.490294</v>
       </c>
       <c r="H10">
-        <v>3.910052</v>
+        <v>4.470882</v>
       </c>
       <c r="I10">
-        <v>0.04897540923545694</v>
+        <v>0.05585774980704767</v>
       </c>
       <c r="J10">
-        <v>0.04897540923545693</v>
+        <v>0.05585774980704766</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N10">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q10">
-        <v>11.15607173855467</v>
+        <v>6.070054892581332</v>
       </c>
       <c r="R10">
-        <v>100.404645646992</v>
+        <v>54.63049403323199</v>
       </c>
       <c r="S10">
-        <v>0.006178106722749761</v>
+        <v>0.005056883489776719</v>
       </c>
       <c r="T10">
-        <v>0.00617810672274976</v>
+        <v>0.005056883489776719</v>
       </c>
     </row>
   </sheetData>
